--- a/ABW.xlsx
+++ b/ABW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Desktop\Shrimp_Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Desktop\PJSite_Dashboard\data\daily_reports\ABW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="97">
   <si>
     <t>Block</t>
   </si>
@@ -228,43 +228,94 @@
     <t>ABW_end</t>
   </si>
   <si>
-    <t>0.008g</t>
-  </si>
-  <si>
-    <t>0.10g</t>
-  </si>
-  <si>
-    <t>0.20g</t>
-  </si>
-  <si>
-    <t>0.30g</t>
-  </si>
-  <si>
-    <t>0.21g</t>
-  </si>
-  <si>
-    <t>0.27g</t>
-  </si>
-  <si>
-    <t>0.25g</t>
-  </si>
-  <si>
-    <t>0.15g</t>
-  </si>
-  <si>
-    <t>0.11g</t>
-  </si>
-  <si>
-    <t>0.04g</t>
-  </si>
-  <si>
-    <t>0.09g</t>
-  </si>
-  <si>
-    <t>0.13g</t>
-  </si>
-  <si>
-    <t>0.02g</t>
+    <t>0.4g</t>
+  </si>
+  <si>
+    <t>0.46g</t>
+  </si>
+  <si>
+    <t>0.43g</t>
+  </si>
+  <si>
+    <t>0.33g</t>
+  </si>
+  <si>
+    <t>0.45g</t>
+  </si>
+  <si>
+    <t>0.63g</t>
+  </si>
+  <si>
+    <t>0.66g</t>
+  </si>
+  <si>
+    <t>0.5g</t>
+  </si>
+  <si>
+    <t>0.9g</t>
+  </si>
+  <si>
+    <t>0.53g</t>
+  </si>
+  <si>
+    <t>0.73g</t>
+  </si>
+  <si>
+    <t>0.6g</t>
+  </si>
+  <si>
+    <t>0.83g</t>
+  </si>
+  <si>
+    <t>0.23g</t>
+  </si>
+  <si>
+    <t>1.06g</t>
+  </si>
+  <si>
+    <t>0.7g</t>
+  </si>
+  <si>
+    <t>0.93g</t>
+  </si>
+  <si>
+    <t>0.96g</t>
+  </si>
+  <si>
+    <t>0.76g</t>
+  </si>
+  <si>
+    <t>1.03g</t>
+  </si>
+  <si>
+    <t>1.13g</t>
+  </si>
+  <si>
+    <t>1.02g</t>
+  </si>
+  <si>
+    <t>0.98g</t>
+  </si>
+  <si>
+    <t>1.04g</t>
+  </si>
+  <si>
+    <t>0.94g</t>
+  </si>
+  <si>
+    <t>1g</t>
+  </si>
+  <si>
+    <t>0.68g</t>
+  </si>
+  <si>
+    <t>no shrimp</t>
+  </si>
+  <si>
+    <t>1.08g</t>
+  </si>
+  <si>
+    <t>T4</t>
   </si>
 </sst>
 </file>
@@ -341,7 +392,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -628,7 +681,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -662,7 +715,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -671,15 +724,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -688,15 +741,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -705,32 +758,32 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -739,15 +792,15 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -756,15 +809,15 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -773,15 +826,15 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -790,15 +843,15 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -807,15 +860,15 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -824,15 +877,15 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -841,15 +894,15 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -858,15 +911,15 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -875,15 +928,15 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -892,15 +945,15 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -909,15 +962,15 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -926,15 +979,15 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -943,15 +996,15 @@
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -960,15 +1013,15 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -977,15 +1030,15 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
@@ -994,15 +1047,15 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -1011,15 +1064,15 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -1028,15 +1081,15 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -1045,15 +1098,15 @@
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -1062,15 +1115,15 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -1079,15 +1132,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -1096,15 +1149,15 @@
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -1113,15 +1166,15 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -1130,15 +1183,15 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -1147,15 +1200,15 @@
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -1164,15 +1217,15 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
@@ -1181,15 +1234,15 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -1198,15 +1251,15 @@
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
@@ -1218,12 +1271,12 @@
         <v>79</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
@@ -1232,15 +1285,15 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -1249,15 +1302,15 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
@@ -1266,15 +1319,15 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -1283,15 +1336,15 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -1300,15 +1353,15 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
@@ -1317,15 +1370,15 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
@@ -1334,15 +1387,15 @@
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
@@ -1351,15 +1404,15 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
@@ -1368,15 +1421,15 @@
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
@@ -1385,15 +1438,15 @@
         <v>2</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
@@ -1402,15 +1455,15 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
@@ -1419,15 +1472,15 @@
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
@@ -1436,15 +1489,15 @@
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
@@ -1453,15 +1506,15 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>46013</v>
+        <v>46026</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
@@ -1470,10 +1523,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1491,255 +1544,560 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A48"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>46009</v>
+      </c>
+      <c r="B1" s="3">
+        <v>46016</v>
+      </c>
+      <c r="C1" s="3">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>